--- a/Big Bang/Student/Student Profile Batch Upload Test Data 2.xlsx
+++ b/Big Bang/Student/Student Profile Batch Upload Test Data 2.xlsx
@@ -2125,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4:Y22"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2550,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z3">
         <v>2017</v>
@@ -2651,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z4">
         <v>2015</v>
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="Y5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z5">
         <v>2018</v>
@@ -2853,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="Y6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z6">
         <v>2016</v>
@@ -2954,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z7">
         <v>2016</v>
@@ -3055,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z8">
         <v>2015</v>
@@ -3156,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z9">
         <v>2018</v>
@@ -3257,7 +3257,7 @@
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z10">
         <v>2018</v>
@@ -3358,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="Y11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z11">
         <v>2017</v>
@@ -3459,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z12">
         <v>2017</v>
@@ -3560,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="Y13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z13">
         <v>2016</v>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z14">
         <v>2018</v>
@@ -3762,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="Y15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z15">
         <v>2015</v>
@@ -3863,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="Y16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z16">
         <v>2016</v>
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z17">
         <v>2016</v>
@@ -4065,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="Y18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z18">
         <v>2017</v>
@@ -4166,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="Y19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z19">
         <v>2016</v>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z20">
         <v>2015</v>
@@ -4368,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="Y21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z21">
         <v>2018</v>
@@ -4469,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="Y22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z22">
         <v>2016</v>
